--- a/biology/Médecine/Liste_des_distinctions_de_Dr_House/Liste_des_distinctions_de_Dr_House.xlsx
+++ b/biology/Médecine/Liste_des_distinctions_de_Dr_House/Liste_des_distinctions_de_Dr_House.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La liste des récompenses et nominations de Dr House récapitule toutes les distinctions reçues par la série américaine Dr House.
@@ -514,12 +526,13 @@
           <t>Emmy Awards</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les Emmy Awards sont décernés chaque année depuis 1949 par l'Academy of Television Arts &amp; Sciences pour honorer l'excellence à la télévision. Ils sont considérés comme les équivalents des Oscars pour la télévision[1]. House a été nommé aux Primetime Emmy Awards[2], qui sont décernés aux acteurs et scénaristes des programmes diffusés en première partie de soirée (prime-time)[3], comme les Creative Arts Emmys[4] sont décernés aux techniciens de la télévision américaine dans son ensemble[5].
-Après sa première saison diffusée entre 2004 et 2005, House a reçu 5 nominations aux Emmys dont 3 Creative Arts Emmys[2]. La série n'a pas remporté l'Emmy de la meilleure série dramatique mais a remporté l'Emmy du meilleur scénario pour une série dramatique[6]. L'année suivante, la série est nommée à 4 Emmys, dont celui de la meilleure série dramatique[7], mais ne le remporte encore pas (il sera décerné à la série 24 heures chrono (24)[8]. En 2007, la série reçoit à nouveau 4 nominations[4], et remporte le Creative Arts Emmy du meilleur maquillage[9]. L'année suivante, lors de la 60e cérémonie des Primetime Emmy Awards, la série reçoit encore 4 nominations[10]. À côté de la nomination pour la meilleure série dramatique pour l'épisode Celle qui venait du froid (Frozen, 4x11) - Katie Jacobs et David Shore voulaient initialement soumettre l'épisode Dans la tête de House… (House's Head, 4x15)[11]. La série ne remporte cette année qu'un Emmy, celui du meilleur réalisateur dans une série dramatique, pour l'épisode Dans la tête de House…[12]. Hugh Laurie, interprète du rôle-titre a été nommé à l'Emmy du meilleur acteur dans une série dramatique à quatre reprises : en 2005, 2007, 2008 et 2009, mais n'a jamais remporté la statuette[13].
-Primetime Emmy Awards
-Creative Arts Emmys</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Emmy Awards sont décernés chaque année depuis 1949 par l'Academy of Television Arts &amp; Sciences pour honorer l'excellence à la télévision. Ils sont considérés comme les équivalents des Oscars pour la télévision. House a été nommé aux Primetime Emmy Awards, qui sont décernés aux acteurs et scénaristes des programmes diffusés en première partie de soirée (prime-time), comme les Creative Arts Emmys sont décernés aux techniciens de la télévision américaine dans son ensemble.
+Après sa première saison diffusée entre 2004 et 2005, House a reçu 5 nominations aux Emmys dont 3 Creative Arts Emmys. La série n'a pas remporté l'Emmy de la meilleure série dramatique mais a remporté l'Emmy du meilleur scénario pour une série dramatique. L'année suivante, la série est nommée à 4 Emmys, dont celui de la meilleure série dramatique, mais ne le remporte encore pas (il sera décerné à la série 24 heures chrono (24). En 2007, la série reçoit à nouveau 4 nominations, et remporte le Creative Arts Emmy du meilleur maquillage. L'année suivante, lors de la 60e cérémonie des Primetime Emmy Awards, la série reçoit encore 4 nominations. À côté de la nomination pour la meilleure série dramatique pour l'épisode Celle qui venait du froid (Frozen, 4x11) - Katie Jacobs et David Shore voulaient initialement soumettre l'épisode Dans la tête de House… (House's Head, 4x15). La série ne remporte cette année qu'un Emmy, celui du meilleur réalisateur dans une série dramatique, pour l'épisode Dans la tête de House…. Hugh Laurie, interprète du rôle-titre a été nommé à l'Emmy du meilleur acteur dans une série dramatique à quatre reprises : en 2005, 2007, 2008 et 2009, mais n'a jamais remporté la statuette.
+</t>
         </is>
       </c>
     </row>
@@ -547,9 +560,11 @@
           <t>Golden Globes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Golden Globes sont décernés chaque année par l'Hollywood Foreign Press Association pour honorer l'excellence au cinéma et à la télévision[21]. Dr House a été nommé huit fois au total, et a remporté deux Golden Globes du meilleur acteur dans une série dramatique pour Hugh Laurie en 2006 et 2007[22]. En 2008, 2009 et 2010, la série a été nommée au Golden Globe de la meilleure série dramatique[23], mais à chaque fois, Mad Men a remporté la statuette[24],[21].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Golden Globes sont décernés chaque année par l'Hollywood Foreign Press Association pour honorer l'excellence au cinéma et à la télévision. Dr House a été nommé huit fois au total, et a remporté deux Golden Globes du meilleur acteur dans une série dramatique pour Hugh Laurie en 2006 et 2007. En 2008, 2009 et 2010, la série a été nommée au Golden Globe de la meilleure série dramatique, mais à chaque fois, Mad Men a remporté la statuette,.
 </t>
         </is>
       </c>
@@ -578,9 +593,11 @@
           <t>NAACP Image Awards</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les NAACP Image Awards sont organisés chaque année par National Association for the Advancement of Colored People pour récompenser les gens de couleur au cinéma, à la télévision, dans la musique et dans la littérature[28]. La série a reçu 9 nominations au total : 5 pour Omar Epps dans la catégorie meilleur acteur dans une série dramatique[29],[30],[31],[32],[33], 3 pour la meilleure série dramatique[31],[32],[33] et 1 pour le meilleur scénario pour l'épisode La Vie privée de n° 13 (Lucky Thirteen)[34].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les NAACP Image Awards sont organisés chaque année par National Association for the Advancement of Colored People pour récompenser les gens de couleur au cinéma, à la télévision, dans la musique et dans la littérature. La série a reçu 9 nominations au total : 5 pour Omar Epps dans la catégorie meilleur acteur dans une série dramatique 3 pour la meilleure série dramatique et 1 pour le meilleur scénario pour l'épisode La Vie privée de n° 13 (Lucky Thirteen).
 </t>
         </is>
       </c>
@@ -609,9 +626,11 @@
           <t>Satellite Awards</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Satellite Awards sont organisés chaque année par l'International Press Academy pour le cinéma et la télévision. Dr House a remporté 5 Golden Satellite Awards, dont celui de la meilleure série dramatique en 2005 et 2006[36],[37].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Satellite Awards sont organisés chaque année par l'International Press Academy pour le cinéma et la télévision. Dr House a remporté 5 Golden Satellite Awards, dont celui de la meilleure série dramatique en 2005 et 2006,.
 </t>
         </is>
       </c>
@@ -640,9 +659,11 @@
           <t>Screen Actors Guild Awards</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Screen Actors Guild Awards sont organisés chaque année par la Screen Actors Guild pour honorer les acteurs et actrices du cinéma et de la télévision[39]. Dr House a été nommée 6 fois : 5 pour Hugh Laurie, dont 2 remportés en 2007 et 2009[40],[41],[42],[43] et 1 pour la meilleure distribution en 2009, remporté par la série Mad Men[43].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Screen Actors Guild Awards sont organisés chaque année par la Screen Actors Guild pour honorer les acteurs et actrices du cinéma et de la télévision. Dr House a été nommée 6 fois : 5 pour Hugh Laurie, dont 2 remportés en 2007 et 2009 et 1 pour la meilleure distribution en 2009, remporté par la série Mad Men.
 </t>
         </is>
       </c>
@@ -671,9 +692,11 @@
           <t>Teen Choice Awards</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Teen Choice Awards sont des récompenses décernées par des adolescents sur Internet chaque année depuis 1999 pour le cinéma, la télévision, la musique, les sports et la mode[46]. Dr House a reçu 5 nominations aux Teen Choice Award : Hugh Laurie a remporté celui de l'acteur préféré en 2007[47].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Teen Choice Awards sont des récompenses décernées par des adolescents sur Internet chaque année depuis 1999 pour le cinéma, la télévision, la musique, les sports et la mode. Dr House a reçu 5 nominations aux Teen Choice Award : Hugh Laurie a remporté celui de l'acteur préféré en 2007.
 </t>
         </is>
       </c>
@@ -702,9 +725,11 @@
           <t>TCA Awards</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les TCA Awards sont décernés chaque année par la Television Critics Association[52]. La série a reçu 6 nominations et en a remporté 2 pour Hugh Laurie dans la catégorie meilleure performance dans un drame[53].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les TCA Awards sont décernés chaque année par la Television Critics Association. La série a reçu 6 nominations et en a remporté 2 pour Hugh Laurie dans la catégorie meilleure performance dans un drame.
 </t>
         </is>
       </c>
@@ -733,7 +758,9 @@
           <t>Autres récompenses américaines</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr House a été nommé pour de nombreux prix décernés par des guildes ou des sociétés américaines.
 </t>
@@ -764,7 +791,9 @@
           <t>Autres récompenses internationales</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr House a été nommé pour des prix décernés par des festivals ou des sociétés se déroulant hors des États-Unis.
 </t>
